--- a/planilhas/planilha6.xlsx
+++ b/planilhas/planilha6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,7 +474,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>jupter</t>
+          <t>saturno</t>
         </is>
       </c>
     </row>
@@ -519,6 +519,98 @@
         </is>
       </c>
       <c r="E4" t="inlineStr">
+        <is>
+          <t>Humano</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Caio</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Humano</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Terra 264</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Beto</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Humano</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Terra</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mirruel</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Human</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Terra</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Luiz</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Terra</t>
         </is>

--- a/planilhas/planilha6.xlsx
+++ b/planilhas/planilha6.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jacobus</t>
+          <t>Rian</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Humano</t>
+          <t>Terra</t>
         </is>
       </c>
     </row>
@@ -543,7 +543,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Terra 264</t>
+          <t>Terra 2</t>
         </is>
       </c>
     </row>
